--- a/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
@@ -6680,12 +6680,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6695,12 +6695,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">

--- a/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Andalucia</t>
+          <t>Percepción de trafico intenso en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3979,7 +3979,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en C.Valenciana</t>
+          <t>Percepción de trafico intenso en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7413,7 +7413,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Barcelona</t>
+          <t>Percepción de trafico intenso en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>211318</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>249191</t>
+          <t>249188</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,63%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>170493</t>
+          <t>171597</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>200439</t>
+          <t>200350</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>394300</t>
+          <t>392232</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>442119</t>
+          <t>439612</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>66,14%</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64363</t>
+          <t>63546</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93977</t>
+          <t>94344</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54482</t>
+          <t>55134</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78374</t>
+          <t>78395</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>125947</t>
+          <t>124077</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>164309</t>
+          <t>163464</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>24,59%</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44127</t>
+          <t>44351</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72422</t>
+          <t>72969</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35769</t>
+          <t>35655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>57141</t>
+          <t>57567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>87915</t>
+          <t>86429</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>121112</t>
+          <t>121677</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,31%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>194266</t>
+          <t>192510</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228807</t>
+          <t>227599</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>140278</t>
+          <t>138922</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>166791</t>
+          <t>166714</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>64,13%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>342708</t>
+          <t>343984</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>389066</t>
+          <t>388202</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>58,67%</t>
+          <t>58,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>66,46%</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56423</t>
+          <t>57864</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86662</t>
+          <t>90073</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49292</t>
+          <t>48804</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73673</t>
+          <t>71160</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>113857</t>
+          <t>111962</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>152745</t>
+          <t>150172</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>25,71%</t>
         </is>
       </c>
     </row>
@@ -1422,12 +1422,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30787</t>
+          <t>30782</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56316</t>
+          <t>55809</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36976</t>
+          <t>36816</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>58311</t>
+          <t>58985</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,12 +1492,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>71945</t>
+          <t>74048</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>105252</t>
+          <t>106430</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,22%</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>306201</t>
+          <t>305760</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>455067</t>
+          <t>454150</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>64,41%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>51665</t>
+          <t>51457</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>67437</t>
+          <t>66664</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1702,12 +1702,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>68,33%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>361823</t>
+          <t>363878</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>536916</t>
+          <t>528739</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>63,15%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>92,28%</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9414</t>
+          <t>12653</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98822</t>
+          <t>99739</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14557</t>
+          <t>15078</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27714</t>
+          <t>27954</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19944</t>
+          <t>22700</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>120286</t>
+          <t>120555</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>21,04%</t>
         </is>
       </c>
     </row>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8819</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76885</t>
+          <t>76812</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11593</t>
+          <t>11859</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>25159</t>
+          <t>24027</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>14892</t>
+          <t>16156</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>96118</t>
+          <t>94344</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,47%</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2108,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>350234</t>
+          <t>352203</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>395279</t>
+          <t>397593</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>427814</t>
+          <t>429035</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>580255</t>
+          <t>575450</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2158,12 +2158,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>67,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>805464</t>
+          <t>801809</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1002595</t>
+          <t>991565</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>68,72%</t>
+          <t>68,41%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>84,6%</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>92713</t>
+          <t>91660</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>131740</t>
+          <t>130687</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31724</t>
+          <t>34528</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>122673</t>
+          <t>121902</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>106177</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>236772</t>
+          <t>241927</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>20,64%</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36207</t>
+          <t>37173</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>65040</t>
+          <t>63312</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2349,12 +2349,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>22047</t>
+          <t>26689</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>90036</t>
+          <t>90915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>63372</t>
+          <t>60056</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>136824</t>
+          <t>137626</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2419,12 +2419,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>130156</t>
+          <t>130631</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>159495</t>
+          <t>159602</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2579,12 +2579,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>61,33%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>281305</t>
+          <t>281207</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>356682</t>
+          <t>357972</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>65,99%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>423762</t>
+          <t>424701</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>510238</t>
+          <t>513593</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>79,91%</t>
+          <t>80,44%</t>
         </is>
       </c>
     </row>
@@ -2677,12 +2677,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27432</t>
+          <t>28162</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50429</t>
+          <t>50835</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2692,12 +2692,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44756</t>
+          <t>45617</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>103575</t>
+          <t>103444</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2727,12 +2727,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>84274</t>
+          <t>78516</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>142570</t>
+          <t>142731</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2762,12 +2762,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>22,35%</t>
         </is>
       </c>
     </row>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18441</t>
+          <t>18604</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>40953</t>
+          <t>40515</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2825,12 +2825,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>19965</t>
+          <t>20087</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>47340</t>
+          <t>47649</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2840,12 +2840,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2860,12 +2860,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>45451</t>
+          <t>43662</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>81930</t>
+          <t>81162</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2875,12 +2875,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>12,71%</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>95526</t>
+          <t>94391</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>133944</t>
+          <t>133687</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3035,12 +3035,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>56,6%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>80,32%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3055,12 +3055,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>326067</t>
+          <t>326055</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>366771</t>
+          <t>369243</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3070,12 +3070,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>433296</t>
+          <t>430015</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>491427</t>
+          <t>490186</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3105,12 +3105,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>74,56%</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18459</t>
+          <t>19917</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52710</t>
+          <t>52976</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3168,12 +3168,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>75003</t>
+          <t>76181</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>111419</t>
+          <t>111679</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>104438</t>
+          <t>101706</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>150292</t>
+          <t>152049</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>23,13%</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>6413</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>35597</t>
+          <t>36126</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3281,12 +3281,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>36711</t>
+          <t>37740</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>64962</t>
+          <t>67004</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>50649</t>
+          <t>50081</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>91947</t>
+          <t>91279</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,88%</t>
         </is>
       </c>
     </row>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1383084</t>
+          <t>1384917</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1667312</t>
+          <t>1713359</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>66,49%</t>
+          <t>66,58%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>80,16%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1465818</t>
+          <t>1467919</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1742422</t>
+          <t>1728175</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>66,34%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>2890907</t>
+          <t>2887771</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3320172</t>
+          <t>3309227</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>67,39%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>77,14%</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>250952</t>
+          <t>227505</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>441217</t>
+          <t>439298</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3604,12 +3604,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>282396</t>
+          <t>288188</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>461173</t>
+          <t>455528</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>600674</t>
+          <t>609368</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>868467</t>
+          <t>874566</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,39%</t>
         </is>
       </c>
     </row>
@@ -3702,12 +3702,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>157533</t>
+          <t>146521</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>273088</t>
+          <t>271174</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>186633</t>
+          <t>190600</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>297349</t>
+          <t>297027</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>385574</t>
+          <t>372358</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>554525</t>
+          <t>544744</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3787,12 +3787,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -7608,12 +7608,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67032</t>
+          <t>66783</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86415</t>
+          <t>86250</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -7643,12 +7643,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54706</t>
+          <t>55265</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>73717</t>
+          <t>74009</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -7658,12 +7658,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>127748</t>
+          <t>128358</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>155283</t>
+          <t>154642</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -7693,12 +7693,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>37,2%</t>
         </is>
       </c>
     </row>
@@ -7721,12 +7721,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14474</t>
+          <t>14509</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25460</t>
+          <t>24865</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7736,12 +7736,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21135</t>
+          <t>20949</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33889</t>
+          <t>34248</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>37931</t>
+          <t>38259</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>55903</t>
+          <t>55324</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -7806,12 +7806,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,31%</t>
         </is>
       </c>
     </row>
@@ -7834,12 +7834,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99979</t>
+          <t>100570</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>119397</t>
+          <t>119870</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>58,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>108587</t>
+          <t>109147</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>128804</t>
+          <t>128785</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>213224</t>
+          <t>215174</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>242702</t>
+          <t>242188</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7919,12 +7919,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>58,26%</t>
         </is>
       </c>
     </row>
@@ -8064,12 +8064,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28077</t>
+          <t>27782</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41706</t>
+          <t>41843</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8079,12 +8079,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39625</t>
+          <t>39764</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>55258</t>
+          <t>55511</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8114,12 +8114,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>71802</t>
+          <t>71571</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>91763</t>
+          <t>92257</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8149,12 +8149,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,56%</t>
         </is>
       </c>
     </row>
@@ -8177,12 +8177,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12267</t>
+          <t>12589</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24912</t>
+          <t>25969</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8192,12 +8192,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8212,12 +8212,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12392</t>
+          <t>12118</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22769</t>
+          <t>23269</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8227,12 +8227,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8247,12 +8247,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>27462</t>
+          <t>27076</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>44119</t>
+          <t>43980</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8262,12 +8262,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -8290,12 +8290,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>63926</t>
+          <t>64267</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80461</t>
+          <t>80594</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8305,12 +8305,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -8325,12 +8325,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94781</t>
+          <t>95210</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>111721</t>
+          <t>112061</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -8340,12 +8340,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>66,59%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>164708</t>
+          <t>164300</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>186422</t>
+          <t>186970</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>56,34%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>63,96%</t>
         </is>
       </c>
     </row>
@@ -8520,12 +8520,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21954</t>
+          <t>21694</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35886</t>
+          <t>34074</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -8535,12 +8535,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -8555,12 +8555,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9589</t>
+          <t>9250</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>21092</t>
+          <t>20812</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -8570,12 +8570,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -8590,12 +8590,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>34109</t>
+          <t>34019</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>51768</t>
+          <t>51817</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -8605,12 +8605,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>33,79%</t>
         </is>
       </c>
     </row>
@@ -8633,12 +8633,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>4661</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11972</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -8648,12 +8648,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -8668,12 +8668,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11380</t>
+          <t>11714</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -8683,12 +8683,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9783</t>
+          <t>9506</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>20301</t>
+          <t>20134</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -8718,12 +8718,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -8746,12 +8746,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52299</t>
+          <t>53043</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>66786</t>
+          <t>67346</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8761,12 +8761,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>69,46%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -8781,12 +8781,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>29596</t>
+          <t>30165</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>42216</t>
+          <t>42155</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>87701</t>
+          <t>87085</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>105953</t>
+          <t>105615</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -8831,12 +8831,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>68,88%</t>
         </is>
       </c>
     </row>
@@ -8976,12 +8976,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36423</t>
+          <t>36677</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54600</t>
+          <t>54009</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8991,12 +8991,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9011,12 +9011,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>42489</t>
+          <t>43398</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>62543</t>
+          <t>62850</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9026,12 +9026,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9046,12 +9046,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>86287</t>
+          <t>85542</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>114266</t>
+          <t>111840</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>34,87%</t>
         </is>
       </c>
     </row>
@@ -9089,12 +9089,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23547</t>
+          <t>24209</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41169</t>
+          <t>41168</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -9124,12 +9124,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10449</t>
+          <t>11018</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23262</t>
+          <t>23607</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9139,12 +9139,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -9159,12 +9159,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>36499</t>
+          <t>37942</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>60550</t>
+          <t>60361</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9174,12 +9174,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -9202,12 +9202,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74783</t>
+          <t>75574</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>96784</t>
+          <t>95397</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -9217,12 +9217,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -9237,12 +9237,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>79029</t>
+          <t>78904</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>99425</t>
+          <t>99227</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -9252,12 +9252,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -9272,12 +9272,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>158195</t>
+          <t>160525</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>189032</t>
+          <t>189871</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -9287,12 +9287,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14071</t>
+          <t>14163</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26616</t>
+          <t>27039</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -9447,12 +9447,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -9467,12 +9467,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>17724</t>
+          <t>17716</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>31415</t>
+          <t>31710</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -9482,12 +9482,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -9502,12 +9502,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>35119</t>
+          <t>35352</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>54235</t>
+          <t>52773</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -9517,12 +9517,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>36,83%</t>
         </is>
       </c>
     </row>
@@ -9545,12 +9545,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9810</t>
+          <t>10464</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -9560,12 +9560,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -9580,12 +9580,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9104</t>
+          <t>9474</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>20806</t>
+          <t>20339</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -9595,12 +9595,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -9615,12 +9615,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>14050</t>
+          <t>14238</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>27405</t>
+          <t>26960</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -9630,12 +9630,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -9658,12 +9658,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20563</t>
+          <t>20269</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32535</t>
+          <t>32748</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -9673,12 +9673,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -9693,12 +9693,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44917</t>
+          <t>44633</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>59781</t>
+          <t>59528</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -9708,12 +9708,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>65,83%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -9728,12 +9728,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>69255</t>
+          <t>70084</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>88468</t>
+          <t>88868</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -9743,12 +9743,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>61,75%</t>
+          <t>62,03%</t>
         </is>
       </c>
     </row>
@@ -9888,12 +9888,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9829</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>20091</t>
+          <t>19734</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9903,12 +9903,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>54,0%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -9923,12 +9923,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>18492</t>
+          <t>18543</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>29456</t>
+          <t>29860</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9938,12 +9938,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -9958,12 +9958,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>31056</t>
+          <t>30990</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>46504</t>
+          <t>46450</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9973,12 +9973,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>47,2%</t>
         </is>
       </c>
     </row>
@@ -10001,12 +10001,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7614</t>
+          <t>7495</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -10016,12 +10016,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -10036,12 +10036,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>9222</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -10071,12 +10071,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6692</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>14584</t>
+          <t>14583</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
@@ -10114,12 +10114,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>12931</t>
+          <t>12707</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23190</t>
+          <t>22914</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -10129,12 +10129,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -10149,12 +10149,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>26747</t>
+          <t>26223</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>37867</t>
+          <t>38149</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -10164,12 +10164,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -10184,12 +10184,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>41852</t>
+          <t>42377</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>58690</t>
+          <t>57538</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -10199,12 +10199,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>58,47%</t>
         </is>
       </c>
     </row>
@@ -10344,12 +10344,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>199965</t>
+          <t>201540</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>236581</t>
+          <t>239119</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -10359,12 +10359,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -10379,12 +10379,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>210423</t>
+          <t>206656</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>245743</t>
+          <t>244142</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -10394,12 +10394,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -10414,12 +10414,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>420129</t>
+          <t>420340</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>475209</t>
+          <t>471841</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -10429,12 +10429,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -10457,12 +10457,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>73097</t>
+          <t>74000</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>100411</t>
+          <t>101522</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -10472,12 +10472,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -10492,12 +10492,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>73475</t>
+          <t>73674</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>99965</t>
+          <t>97964</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -10507,12 +10507,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -10527,12 +10527,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>154066</t>
+          <t>153668</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>190694</t>
+          <t>189326</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -10542,12 +10542,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -10570,12 +10570,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>354242</t>
+          <t>353224</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>393883</t>
+          <t>393019</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -10605,12 +10605,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>413299</t>
+          <t>415299</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>450346</t>
+          <t>455433</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -10620,12 +10620,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -10640,12 +10640,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>777133</t>
+          <t>778478</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>834679</t>
+          <t>833507</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -10655,12 +10655,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>58,62%</t>
+          <t>58,54%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Clase-trans_orig.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>231196</t>
+          <t>249473</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>229604</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>249188</t>
+          <t>268684</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>186548</t>
+          <t>202987</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>171597</t>
+          <t>187024</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>200350</t>
+          <t>217394</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>62,56%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>417743</t>
+          <t>452461</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>392232</t>
+          <t>424891</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>439612</t>
+          <t>475337</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>59,01%</t>
+          <t>59,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>66,03%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77878</t>
+          <t>84741</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63546</t>
+          <t>68730</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94344</t>
+          <t>102904</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65846</t>
+          <t>72028</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55134</t>
+          <t>60370</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78395</t>
+          <t>85559</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>143724</t>
+          <t>156769</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>124077</t>
+          <t>135966</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>163464</t>
+          <t>178258</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,76%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57609</t>
+          <t>61172</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44351</t>
+          <t>47684</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72969</t>
+          <t>77046</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45614</t>
+          <t>49463</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35655</t>
+          <t>38610</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>57567</t>
+          <t>62281</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>103224</t>
+          <t>110635</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>86429</t>
+          <t>94056</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>121677</t>
+          <t>131338</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,24%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>298008</t>
+          <t>324478</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>298008</t>
+          <t>324478</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>298008</t>
+          <t>324478</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>664691</t>
+          <t>719865</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>664691</t>
+          <t>719865</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>664691</t>
+          <t>719865</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>211565</t>
+          <t>224479</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>192510</t>
+          <t>204863</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>227599</t>
+          <t>241259</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,29%</t>
+          <t>65,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>70,24%</t>
+          <t>70,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>153584</t>
+          <t>168247</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>138922</t>
+          <t>152421</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>166714</t>
+          <t>182385</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>58,63%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>365150</t>
+          <t>392726</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>343984</t>
+          <t>370062</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>388202</t>
+          <t>416503</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>58,89%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>65,98%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70745</t>
+          <t>75790</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57864</t>
+          <t>62095</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90073</t>
+          <t>95877</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59814</t>
+          <t>69020</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48804</t>
+          <t>55988</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71160</t>
+          <t>82152</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>130558</t>
+          <t>144811</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>111962</t>
+          <t>124984</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>150172</t>
+          <t>166187</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>26,33%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41737</t>
+          <t>44077</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30782</t>
+          <t>32220</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55809</t>
+          <t>58660</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46683</t>
+          <t>49673</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36816</t>
+          <t>39102</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>58985</t>
+          <t>62214</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>88420</t>
+          <t>93750</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>74048</t>
+          <t>78650</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>106430</t>
+          <t>112007</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>17,74%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>397865</t>
+          <t>172528</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>305760</t>
+          <t>157033</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>454150</t>
+          <t>189920</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>83,69%</t>
+          <t>66,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>64,31%</t>
+          <t>60,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,32 +1682,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>59695</t>
+          <t>68659</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>51457</t>
+          <t>59181</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>66664</t>
+          <t>76598</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>61,59%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,32 +1717,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>457560</t>
+          <t>241188</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>363878</t>
+          <t>221878</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>528739</t>
+          <t>258767</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>69,55%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44014</t>
+          <t>49465</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12653</t>
+          <t>36749</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>99739</t>
+          <t>62919</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20890</t>
+          <t>23558</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15078</t>
+          <t>16868</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27954</t>
+          <t>32093</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>64905</t>
+          <t>73023</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22700</t>
+          <t>59219</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>120555</t>
+          <t>89746</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>24,12%</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33545</t>
+          <t>38564</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>25856</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76812</t>
+          <t>52971</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16978</t>
+          <t>19269</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11859</t>
+          <t>13643</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24027</t>
+          <t>27618</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>50523</t>
+          <t>57833</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>16156</t>
+          <t>44586</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>94344</t>
+          <t>75129</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>20,19%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>376313</t>
+          <t>414376</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>352203</t>
+          <t>389207</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>397593</t>
+          <t>438481</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>64,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>500228</t>
+          <t>328389</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>429035</t>
+          <t>308565</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>575450</t>
+          <t>347488</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>78,52%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>70,91%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,32 +2173,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>876541</t>
+          <t>742765</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>801809</t>
+          <t>710573</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>991565</t>
+          <t>773259</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>74,79%</t>
+          <t>67,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>64,73%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>70,44%</t>
         </is>
       </c>
     </row>
@@ -2216,32 +2216,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>109881</t>
+          <t>134962</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91660</t>
+          <t>112390</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>130687</t>
+          <t>159320</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,32 +2251,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>78506</t>
+          <t>90288</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34528</t>
+          <t>74392</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>121902</t>
+          <t>106884</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,32 +2286,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>188387</t>
+          <t>225250</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>116000</t>
+          <t>200020</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>241927</t>
+          <t>253015</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>23,05%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48777</t>
+          <t>58440</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>37173</t>
+          <t>44863</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63312</t>
+          <t>75357</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>58310</t>
+          <t>71362</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>26689</t>
+          <t>57715</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>90915</t>
+          <t>85839</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>107087</t>
+          <t>129802</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>60056</t>
+          <t>108243</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>137626</t>
+          <t>151507</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>637044</t>
+          <t>490040</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>637044</t>
+          <t>490040</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>637044</t>
+          <t>490040</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1172015</t>
+          <t>1097818</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1172015</t>
+          <t>1097818</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1172015</t>
+          <t>1097818</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2559,32 +2559,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>145463</t>
+          <t>175013</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>130631</t>
+          <t>157762</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>159602</t>
+          <t>190165</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>68,54%</t>
+          <t>68,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>62,03%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,32 +2594,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>310472</t>
+          <t>275532</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>281207</t>
+          <t>257176</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>357972</t>
+          <t>290397</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,32 +2629,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>455935</t>
+          <t>450545</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>424701</t>
+          <t>427656</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>513593</t>
+          <t>473369</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>71,41%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>71,39%</t>
         </is>
       </c>
     </row>
@@ -2672,32 +2672,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>38402</t>
+          <t>45489</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28162</t>
+          <t>33663</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50835</t>
+          <t>58975</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,32 +2707,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>80238</t>
+          <t>90786</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>45617</t>
+          <t>77559</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>103444</t>
+          <t>107903</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,32 +2742,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>118640</t>
+          <t>136275</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>78516</t>
+          <t>116339</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>142731</t>
+          <t>156920</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -2785,32 +2785,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>28354</t>
+          <t>33827</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18604</t>
+          <t>22810</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>40515</t>
+          <t>47401</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,32 +2820,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35579</t>
+          <t>42424</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20087</t>
+          <t>32560</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>47649</t>
+          <t>52076</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2855,32 +2855,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>63933</t>
+          <t>76252</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>43662</t>
+          <t>62413</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>81162</t>
+          <t>94947</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>14,32%</t>
         </is>
       </c>
     </row>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2933,17 +2933,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2968,17 +2968,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3015,32 +3015,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>115667</t>
+          <t>117670</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>94391</t>
+          <t>97823</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>133687</t>
+          <t>134894</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>69,36%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>57,71%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3050,32 +3050,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>347892</t>
+          <t>384070</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>326055</t>
+          <t>361208</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>369243</t>
+          <t>408054</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3085,32 +3085,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>463560</t>
+          <t>501739</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>430015</t>
+          <t>469268</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>490186</t>
+          <t>529830</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>70,51%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>73,89%</t>
         </is>
       </c>
     </row>
@@ -3128,32 +3128,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>33633</t>
+          <t>33078</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>19917</t>
+          <t>19875</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52976</t>
+          <t>50808</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3163,32 +3163,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>92469</t>
+          <t>105178</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>76181</t>
+          <t>85974</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>111679</t>
+          <t>125724</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3198,32 +3198,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>126103</t>
+          <t>138256</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>101706</t>
+          <t>114706</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>152049</t>
+          <t>165683</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>23,11%</t>
         </is>
       </c>
     </row>
@@ -3241,32 +3241,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17461</t>
+          <t>18749</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6413</t>
+          <t>7840</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>36126</t>
+          <t>35582</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3276,32 +3276,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>50294</t>
+          <t>58322</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>37740</t>
+          <t>44419</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>67004</t>
+          <t>76512</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3311,32 +3311,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>67756</t>
+          <t>77071</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>50081</t>
+          <t>58263</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>91279</t>
+          <t>100855</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>14,06%</t>
         </is>
       </c>
     </row>
@@ -3354,17 +3354,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>490656</t>
+          <t>547570</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>490656</t>
+          <t>547570</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>490656</t>
+          <t>547570</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>657418</t>
+          <t>717066</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>657418</t>
+          <t>717066</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>657418</t>
+          <t>717066</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3471,32 +3471,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1478069</t>
+          <t>1353539</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1384917</t>
+          <t>1309286</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1713359</t>
+          <t>1402898</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>71,06%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3506,32 +3506,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1558419</t>
+          <t>1427885</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1467919</t>
+          <t>1386815</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1728175</t>
+          <t>1467638</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>65,82%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>78,21%</t>
+          <t>67,66%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3541,32 +3541,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>3036488</t>
+          <t>2781423</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>2887771</t>
+          <t>2718369</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3309227</t>
+          <t>2842085</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>70,78%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>77,14%</t>
+          <t>67,65%</t>
         </is>
       </c>
     </row>
@@ -3584,32 +3584,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>374553</t>
+          <t>423525</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>227505</t>
+          <t>380864</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>439298</t>
+          <t>461482</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3619,32 +3619,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>397763</t>
+          <t>450858</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>288188</t>
+          <t>417501</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>455528</t>
+          <t>486282</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3654,32 +3654,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>772317</t>
+          <t>874383</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>609368</t>
+          <t>824037</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>874566</t>
+          <t>931762</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>227484</t>
+          <t>254830</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>146521</t>
+          <t>225306</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>271174</t>
+          <t>290123</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3732,32 +3732,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>253459</t>
+          <t>290513</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>190600</t>
+          <t>259953</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>297027</t>
+          <t>321029</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3767,32 +3767,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>480942</t>
+          <t>545343</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>372358</t>
+          <t>498653</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>544744</t>
+          <t>589212</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>14,03%</t>
         </is>
       </c>
     </row>
@@ -3810,17 +3810,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3845,17 +3845,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2209641</t>
+          <t>2169256</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2209641</t>
+          <t>2169256</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2209641</t>
+          <t>2169256</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3880,17 +3880,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4289747</t>
+          <t>4201150</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4289747</t>
+          <t>4201150</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4289747</t>
+          <t>4201150</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3979,7 +3979,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en C.Valenciana (tasa de respuesta: 93,76%)</t>
+          <t>Percepción de trafico intenso en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4164,107 +4164,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>220565</t>
+          <t>76679</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>208009</t>
+          <t>66783</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>232584</t>
+          <t>86250</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>183198</t>
+          <t>64282</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>168669</t>
+          <t>55265</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>196931</t>
+          <t>74009</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>71,11%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>372</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>403763</t>
+          <t>140961</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>384933</t>
+          <t>128358</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>421813</t>
+          <t>154642</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>37,2%</t>
         </is>
       </c>
     </row>
@@ -4277,107 +4277,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53975</t>
+          <t>19119</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43791</t>
+          <t>14509</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64685</t>
+          <t>24865</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62884</t>
+          <t>26747</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51740</t>
+          <t>20949</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76603</t>
+          <t>34248</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>145</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>116859</t>
+          <t>45866</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>101574</t>
+          <t>38259</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>133825</t>
+          <t>55324</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>13,31%</t>
         </is>
       </c>
     </row>
@@ -4390,107 +4390,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20983</t>
+          <t>109844</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13817</t>
+          <t>100570</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30098</t>
+          <t>119870</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>58,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30863</t>
+          <t>119041</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23133</t>
+          <t>109147</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>42354</t>
+          <t>128785</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>56,67%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>61,31%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>697</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>51846</t>
+          <t>228886</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>41270</t>
+          <t>215174</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>64392</t>
+          <t>242188</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>55,06%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>58,26%</t>
         </is>
       </c>
     </row>
@@ -4503,22 +4503,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4538,22 +4538,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>210070</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>210070</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>210070</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4573,22 +4573,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>572468</t>
+          <t>415712</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>572468</t>
+          <t>415712</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>572468</t>
+          <t>415712</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4620,107 +4620,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>139075</t>
+          <t>34231</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>128339</t>
+          <t>27782</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>148296</t>
+          <t>41843</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>167836</t>
+          <t>47161</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>157144</t>
+          <t>39764</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>178889</t>
+          <t>55511</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>72,48%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>77,26%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>201</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>306911</t>
+          <t>81391</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>291604</t>
+          <t>71571</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>322712</t>
+          <t>92257</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>71,82%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>68,24%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>31,56%</t>
         </is>
       </c>
     </row>
@@ -4733,107 +4733,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41881</t>
+          <t>17671</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33472</t>
+          <t>12589</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51467</t>
+          <t>25969</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43098</t>
+          <t>16929</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34326</t>
+          <t>12118</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52858</t>
+          <t>23269</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>84980</t>
+          <t>34600</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>71745</t>
+          <t>27076</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>97472</t>
+          <t>43980</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -4846,107 +4846,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14815</t>
+          <t>72642</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9914</t>
+          <t>64267</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21765</t>
+          <t>80594</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>58,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20618</t>
+          <t>103696</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14173</t>
+          <t>95210</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28864</t>
+          <t>112061</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>448</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>35433</t>
+          <t>176338</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>27278</t>
+          <t>164300</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>46477</t>
+          <t>186970</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>63,96%</t>
         </is>
       </c>
     </row>
@@ -4959,22 +4959,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>124544</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>124544</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>124544</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4994,22 +4994,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>231552</t>
+          <t>167786</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>231552</t>
+          <t>167786</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>231552</t>
+          <t>167786</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5029,22 +5029,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>427324</t>
+          <t>292329</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>427324</t>
+          <t>292329</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>427324</t>
+          <t>292329</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5076,107 +5076,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>131463</t>
+          <t>28116</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>121218</t>
+          <t>21694</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139886</t>
+          <t>34074</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>72,89%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57806</t>
+          <t>14658</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>50928</t>
+          <t>9250</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>64124</t>
+          <t>20812</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>70,22%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>61,87%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>105</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>189268</t>
+          <t>42774</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>177179</t>
+          <t>34019</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>199976</t>
+          <t>51817</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>72,06%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>67,45%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>33,79%</t>
         </is>
       </c>
     </row>
@@ -5189,107 +5189,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38589</t>
+          <t>7851</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30800</t>
+          <t>4661</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47918</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16850</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11510</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22837</t>
+          <t>11714</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>55439</t>
+          <t>13922</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>46204</t>
+          <t>9506</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>67042</t>
+          <t>20134</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -5302,107 +5302,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10299</t>
+          <t>60186</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6266</t>
+          <t>53043</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16386</t>
+          <t>67346</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7664</t>
+          <t>36457</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4358</t>
+          <t>30165</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12427</t>
+          <t>42155</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>63,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>17964</t>
+          <t>96643</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>12573</t>
+          <t>87085</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25180</t>
+          <t>105615</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>63,03%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>68,88%</t>
         </is>
       </c>
     </row>
@@ -5415,92 +5415,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>96153</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>96153</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>96153</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57186</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57186</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57186</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
           <t>345</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>180351</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>180351</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>180351</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>82320</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>82320</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>82320</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>153339</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>153339</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>153339</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5532,107 +5532,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>218655</t>
+          <t>45487</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>206747</t>
+          <t>36677</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>231068</t>
+          <t>54009</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>71,18%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>75,22%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>219318</t>
+          <t>52850</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>207055</t>
+          <t>43398</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>233449</t>
+          <t>62850</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>69,32%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>207</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>437973</t>
+          <t>98336</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>418772</t>
+          <t>85542</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>455281</t>
+          <t>111840</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>70,24%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>34,87%</t>
         </is>
       </c>
     </row>
@@ -5645,107 +5645,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64169</t>
+          <t>31537</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52916</t>
+          <t>24209</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76062</t>
+          <t>41168</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>68055</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>56615</t>
+          <t>11018</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>79605</t>
+          <t>23607</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>132224</t>
+          <t>47416</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>116919</t>
+          <t>37942</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>148981</t>
+          <t>60361</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -5758,107 +5758,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>24351</t>
+          <t>85737</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17968</t>
+          <t>75574</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33077</t>
+          <t>95397</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29005</t>
+          <t>89286</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>20994</t>
+          <t>78904</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>38274</t>
+          <t>99227</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>369</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>53356</t>
+          <t>175022</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>43275</t>
+          <t>160525</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>67168</t>
+          <t>189871</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -5871,22 +5871,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>162760</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>162760</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>162760</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5906,22 +5906,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>330</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>158015</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>158015</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>158015</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5941,22 +5941,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>664</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>623553</t>
+          <t>320775</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>623553</t>
+          <t>320775</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>623553</t>
+          <t>320775</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5988,107 +5988,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>112818</t>
+          <t>19987</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>102205</t>
+          <t>14163</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>121650</t>
+          <t>27039</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>118822</t>
+          <t>24053</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>107414</t>
+          <t>17716</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>126898</t>
+          <t>31710</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>231641</t>
+          <t>44040</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>217853</t>
+          <t>35352</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>244149</t>
+          <t>52773</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>75,71%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>36,83%</t>
         </is>
       </c>
     </row>
@@ -6101,107 +6101,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>32295</t>
+          <t>5832</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24263</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>42216</t>
+          <t>10464</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23909</t>
+          <t>14149</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17441</t>
+          <t>9474</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>32434</t>
+          <t>20339</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>56204</t>
+          <t>19981</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>45505</t>
+          <t>14238</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>67905</t>
+          <t>26960</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -6214,107 +6214,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5781</t>
+          <t>26648</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>20269</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10504</t>
+          <t>32748</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12336</t>
+          <t>52604</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6663</t>
+          <t>44633</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21408</t>
+          <t>59528</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>57,93%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>157</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>18117</t>
+          <t>79251</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>11331</t>
+          <t>70084</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>27388</t>
+          <t>88868</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>62,03%</t>
         </is>
       </c>
     </row>
@@ -6327,22 +6327,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>52466</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>52466</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>52466</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6362,22 +6362,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>181</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>90806</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>90806</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>90806</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6397,22 +6397,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>281</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>143272</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>143272</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>143272</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6444,107 +6444,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>14385</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8470</t>
+          <t>19734</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>65,77%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>54,0%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7529</t>
+          <t>23950</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4438</t>
+          <t>18543</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>9823</t>
+          <t>29860</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>66,04%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>13678</t>
+          <t>38335</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>9851</t>
+          <t>30990</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>17037</t>
+          <t>46450</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>47,2%</t>
         </is>
       </c>
     </row>
@@ -6557,107 +6557,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5798</t>
+          <t>7495</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>62,02%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>5760</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>5886</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>9989</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>10033</t>
+          <t>14583</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>14,82%</t>
         </is>
       </c>
     </row>
@@ -6670,107 +6670,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17933</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12707</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>22914</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>32154</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26223</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>38149</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>51,98%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>120</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>50087</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42377</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>57538</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>50,9%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>58,47%</t>
         </is>
       </c>
     </row>
@@ -6783,22 +6783,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6818,22 +6818,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>61864</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>61864</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>61864</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6853,22 +6853,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>98412</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>98412</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>98412</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6900,107 +6900,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>828723</t>
+          <t>218884</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>802720</t>
+          <t>201540</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>852880</t>
+          <t>239119</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>70,47%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>538</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>754510</t>
+          <t>226953</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>731558</t>
+          <t>206656</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>777797</t>
+          <t>244142</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>70,27%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>68,14%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1583233</t>
+          <t>445837</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1549146</t>
+          <t>420340</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1614428</t>
+          <t>471841</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -7013,107 +7013,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>234109</t>
+          <t>86239</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>213200</t>
+          <t>74000</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>257532</t>
+          <t>101522</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>217740</t>
+          <t>85535</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>197656</t>
+          <t>73674</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>238958</t>
+          <t>97964</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>421</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>451849</t>
+          <t>171774</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>421884</t>
+          <t>153668</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>481750</t>
+          <t>189326</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -7126,107 +7126,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>76229</t>
+          <t>372990</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>63461</t>
+          <t>353224</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>90952</t>
+          <t>393019</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>101416</t>
+          <t>433238</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>85339</t>
+          <t>415299</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>116996</t>
+          <t>455433</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>177646</t>
+          <t>806228</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>157777</t>
+          <t>778478</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>199391</t>
+          <t>833507</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>58,54%</t>
         </is>
       </c>
     </row>
@@ -7239,22 +7239,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1139061</t>
+          <t>678113</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1139061</t>
+          <t>678113</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1139061</t>
+          <t>678113</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7274,22 +7274,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1073666</t>
+          <t>745726</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1073666</t>
+          <t>745726</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>1073666</t>
+          <t>745726</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7309,22 +7309,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>2212727</t>
+          <t>1423839</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>2212727</t>
+          <t>1423839</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>2212727</t>
+          <t>1423839</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7413,7 +7413,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Barcelona (tasa de respuesta: 99,52%)</t>
+          <t>Percepción de trafico intenso en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7598,107 +7598,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>76679</t>
+          <t>220565</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66783</t>
+          <t>208009</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86250</t>
+          <t>232584</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>78,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>322</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>64282</t>
+          <t>183198</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>55265</t>
+          <t>168669</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>74009</t>
+          <t>196931</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>66,15%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>71,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>710</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>140961</t>
+          <t>403763</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>128358</t>
+          <t>384933</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>154642</t>
+          <t>421813</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>67,24%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>73,68%</t>
         </is>
       </c>
     </row>
@@ -7711,107 +7711,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19119</t>
+          <t>53975</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14509</t>
+          <t>43791</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24865</t>
+          <t>64685</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26747</t>
+          <t>62884</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20949</t>
+          <t>51740</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34248</t>
+          <t>76603</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>45866</t>
+          <t>116859</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>38259</t>
+          <t>101574</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>55324</t>
+          <t>133825</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -7824,107 +7824,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>109844</t>
+          <t>20983</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100570</t>
+          <t>13817</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>119870</t>
+          <t>30098</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>119041</t>
+          <t>30863</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>109147</t>
+          <t>23133</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>128785</t>
+          <t>42354</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>228886</t>
+          <t>51846</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215174</t>
+          <t>41270</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>242188</t>
+          <t>64392</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -7937,22 +7937,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7972,22 +7972,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>210070</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>210070</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>210070</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8007,22 +8007,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>415712</t>
+          <t>572468</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>415712</t>
+          <t>572468</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>415712</t>
+          <t>572468</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8054,107 +8054,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34231</t>
+          <t>139075</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27782</t>
+          <t>128339</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41843</t>
+          <t>148296</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>65,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>283</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47161</t>
+          <t>167836</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39764</t>
+          <t>157144</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>55511</t>
+          <t>178889</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>72,48%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>77,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>81391</t>
+          <t>306911</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>71571</t>
+          <t>291604</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>92257</t>
+          <t>322712</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>71,82%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>68,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>75,52%</t>
         </is>
       </c>
     </row>
@@ -8167,107 +8167,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17671</t>
+          <t>41881</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12589</t>
+          <t>33472</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25969</t>
+          <t>51467</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16929</t>
+          <t>43098</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12118</t>
+          <t>34326</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23269</t>
+          <t>52858</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>152</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>34600</t>
+          <t>84980</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>27076</t>
+          <t>71745</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>43980</t>
+          <t>97472</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>22,81%</t>
         </is>
       </c>
     </row>
@@ -8280,107 +8280,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>72642</t>
+          <t>14815</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64267</t>
+          <t>9914</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80594</t>
+          <t>21765</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,71%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>103696</t>
+          <t>20618</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95210</t>
+          <t>14173</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>112061</t>
+          <t>28864</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>56,74%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>176338</t>
+          <t>35433</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>164300</t>
+          <t>27278</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>186970</t>
+          <t>46477</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>10,88%</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>124544</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>124544</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>124544</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -8428,22 +8428,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>167786</t>
+          <t>231552</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>167786</t>
+          <t>231552</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167786</t>
+          <t>231552</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -8463,22 +8463,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>740</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>292329</t>
+          <t>427324</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>292329</t>
+          <t>427324</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>292329</t>
+          <t>427324</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -8510,107 +8510,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28116</t>
+          <t>131463</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21694</t>
+          <t>121218</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34074</t>
+          <t>139886</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>67,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14658</t>
+          <t>57806</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9250</t>
+          <t>50928</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20812</t>
+          <t>64124</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>61,87%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>365</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>42774</t>
+          <t>189268</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>34019</t>
+          <t>177179</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>51817</t>
+          <t>199976</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>67,45%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>76,13%</t>
         </is>
       </c>
     </row>
@@ -8623,107 +8623,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7851</t>
+          <t>38589</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4661</t>
+          <t>30800</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12415</t>
+          <t>47918</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>16850</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>11510</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11714</t>
+          <t>22837</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13922</t>
+          <t>55439</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9506</t>
+          <t>46204</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>20134</t>
+          <t>67042</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>25,52%</t>
         </is>
       </c>
     </row>
@@ -8736,107 +8736,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>60186</t>
+          <t>10299</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>53043</t>
+          <t>6266</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67346</t>
+          <t>16386</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,16%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>36457</t>
+          <t>7664</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30165</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>42155</t>
+          <t>12427</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>63,75%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>96643</t>
+          <t>17964</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>87085</t>
+          <t>12573</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>105615</t>
+          <t>25180</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>63,03%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>56,79%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -8849,22 +8849,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8884,22 +8884,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57186</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57186</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57186</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8919,22 +8919,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>153339</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>153339</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>153339</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8966,107 +8966,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45487</t>
+          <t>218655</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36677</t>
+          <t>206747</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54009</t>
+          <t>231068</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>71,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>52850</t>
+          <t>219318</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>43398</t>
+          <t>207055</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>62850</t>
+          <t>233449</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>33,45%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>809</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>98336</t>
+          <t>437973</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>85542</t>
+          <t>418772</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>111840</t>
+          <t>455281</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>73,01%</t>
         </is>
       </c>
     </row>
@@ -9079,107 +9079,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31537</t>
+          <t>64169</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24209</t>
+          <t>52916</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41168</t>
+          <t>76062</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15880</t>
+          <t>68055</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11018</t>
+          <t>56615</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23607</t>
+          <t>79605</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>236</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>47416</t>
+          <t>132224</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>37942</t>
+          <t>116919</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>60361</t>
+          <t>148981</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -9192,107 +9192,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>85737</t>
+          <t>24351</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>75574</t>
+          <t>17968</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>95397</t>
+          <t>33077</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>89286</t>
+          <t>29005</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>78904</t>
+          <t>20994</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>99227</t>
+          <t>38274</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>175022</t>
+          <t>53356</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>160525</t>
+          <t>43275</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>189871</t>
+          <t>67168</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>10,77%</t>
         </is>
       </c>
     </row>
@@ -9305,22 +9305,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>162760</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>162760</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>162760</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -9340,22 +9340,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>556</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>158015</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>158015</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>158015</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -9375,22 +9375,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>320775</t>
+          <t>623553</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>320775</t>
+          <t>623553</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>320775</t>
+          <t>623553</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -9422,107 +9422,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>19987</t>
+          <t>112818</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14163</t>
+          <t>102205</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27039</t>
+          <t>121650</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24053</t>
+          <t>118822</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>17716</t>
+          <t>107414</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>31710</t>
+          <t>126898</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>414</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>44040</t>
+          <t>231641</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>35352</t>
+          <t>217853</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>52773</t>
+          <t>244149</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>75,71%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -9535,107 +9535,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5832</t>
+          <t>32295</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>24263</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10464</t>
+          <t>42216</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14149</t>
+          <t>23909</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9474</t>
+          <t>17441</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>20339</t>
+          <t>32434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>19981</t>
+          <t>56204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>14238</t>
+          <t>45505</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>26960</t>
+          <t>67905</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -9648,107 +9648,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26648</t>
+          <t>5781</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20269</t>
+          <t>2858</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32748</t>
+          <t>10504</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>52604</t>
+          <t>12336</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44633</t>
+          <t>6663</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>59528</t>
+          <t>21408</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>79251</t>
+          <t>18117</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>70084</t>
+          <t>11331</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>88868</t>
+          <t>27388</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>62,03%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -9761,22 +9761,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>52466</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>52466</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>52466</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -9796,22 +9796,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90806</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>90806</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>90806</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -9831,22 +9831,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>143272</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>143272</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>143272</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -9878,107 +9878,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>14385</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19734</t>
+          <t>8470</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>23950</t>
+          <t>7529</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>18543</t>
+          <t>4438</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>29860</t>
+          <t>9823</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>66,04%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>48,27%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>38335</t>
+          <t>13678</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>30990</t>
+          <t>9851</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>46450</t>
+          <t>17037</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>65,92%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>82,11%</t>
         </is>
       </c>
     </row>
@@ -9991,107 +9991,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4229</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>878</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7495</t>
+          <t>5798</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>814</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>5886</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9989</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6753</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>14583</t>
+          <t>10033</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>48,35%</t>
         </is>
       </c>
     </row>
@@ -10104,107 +10104,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17933</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>12707</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22914</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>32154</t>
+          <t>929</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>26223</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>38149</t>
+          <t>4739</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>50087</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>42377</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>57538</t>
+          <t>4652</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>50,9%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>22,42%</t>
         </is>
       </c>
     </row>
@@ -10217,22 +10217,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -10252,22 +10252,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>61864</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>61864</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>61864</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -10287,22 +10287,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>98412</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>98412</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>98412</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -10334,107 +10334,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>218884</t>
+          <t>828723</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>201540</t>
+          <t>802720</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>239119</t>
+          <t>852880</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>226953</t>
+          <t>754510</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>206656</t>
+          <t>731558</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>244142</t>
+          <t>777797</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>70,27%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>445837</t>
+          <t>1583233</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>420340</t>
+          <t>1549146</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>471841</t>
+          <t>1614428</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>71,55%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>70,01%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>72,96%</t>
         </is>
       </c>
     </row>
@@ -10447,107 +10447,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>86239</t>
+          <t>234109</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>74000</t>
+          <t>213200</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>101522</t>
+          <t>257532</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>377</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>85535</t>
+          <t>217740</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>73674</t>
+          <t>197656</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>97964</t>
+          <t>238958</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>787</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>171774</t>
+          <t>451849</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>153668</t>
+          <t>421884</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>189326</t>
+          <t>481750</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>21,77%</t>
         </is>
       </c>
     </row>
@@ -10560,107 +10560,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>372990</t>
+          <t>76229</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>353224</t>
+          <t>63461</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>393019</t>
+          <t>90952</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>55,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>52,09%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>433238</t>
+          <t>101416</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>415299</t>
+          <t>85339</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>455433</t>
+          <t>116996</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>806228</t>
+          <t>177646</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>778478</t>
+          <t>157777</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>833507</t>
+          <t>199391</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -10673,22 +10673,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>678113</t>
+          <t>1139061</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>678113</t>
+          <t>1139061</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>678113</t>
+          <t>1139061</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -10708,22 +10708,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>745726</t>
+          <t>1073666</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>745726</t>
+          <t>1073666</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>745726</t>
+          <t>1073666</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -10743,22 +10743,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1423839</t>
+          <t>2212727</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1423839</t>
+          <t>2212727</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1423839</t>
+          <t>2212727</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
